--- a/data/Species list.xlsx
+++ b/data/Species list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\Effects of L. polyphyllys on ARVK\Lupin-on-ARVK\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{735A257F-D0F2-4BC9-AA89-AA99D307D49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7426303E-48CA-404C-983C-A1938D97747F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6000DBE1-1711-4AC3-9399-676ED4D847F8}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$223</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$223</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="454">
   <si>
     <t>Art(örter)</t>
   </si>
@@ -1046,9 +1046,6 @@
     <t>Örnbräken</t>
   </si>
   <si>
-    <t>Pteridium aquilinum</t>
-  </si>
-  <si>
     <t>Krattfibblor</t>
   </si>
   <si>
@@ -1620,6 +1617,15 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Medelhöjd (cm)</t>
+  </si>
+  <si>
+    <t>Träd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pteridium </t>
   </si>
 </sst>
 </file>
@@ -1707,16 +1713,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>39287</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>448</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>486962</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>124273</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1739,7 +1745,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6391275" y="2124075"/>
+          <a:off x="9277350" y="914400"/>
           <a:ext cx="8507012" cy="3210373"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2049,10 +2055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3A9AC1-AE88-4809-8CE0-DB10C60DD422}">
-  <dimension ref="A1:F223"/>
+  <dimension ref="A1:H223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="L90" sqref="L90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2061,44 +2067,56 @@
     <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>330</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B2" t="s">
         <v>297</v>
       </c>
-      <c r="B2" t="s">
-        <v>298</v>
-      </c>
       <c r="C2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G2">
+        <v>55</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -2106,16 +2124,22 @@
         <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F3" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G3">
+        <v>35</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>147</v>
       </c>
@@ -2123,33 +2147,45 @@
         <v>148</v>
       </c>
       <c r="C4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F4" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G4">
+        <v>1750</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>435</v>
+      </c>
+      <c r="B5" t="s">
         <v>436</v>
       </c>
-      <c r="B5" t="s">
-        <v>437</v>
-      </c>
       <c r="C5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F5" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>171</v>
       </c>
@@ -2157,16 +2193,22 @@
         <v>172</v>
       </c>
       <c r="C6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F6" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G6">
+        <v>22.5</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -2174,67 +2216,91 @@
         <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F7" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B8" t="s">
         <v>65</v>
       </c>
       <c r="C8" t="s">
+        <v>330</v>
+      </c>
+      <c r="D8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F8" t="s">
+        <v>447</v>
+      </c>
+      <c r="G8">
+        <v>25</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>421</v>
+      </c>
+      <c r="B9" t="s">
+        <v>422</v>
+      </c>
+      <c r="C9" t="s">
+        <v>332</v>
+      </c>
+      <c r="D9" t="s">
+        <v>443</v>
+      </c>
+      <c r="F9" t="s">
+        <v>447</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>331</v>
       </c>
-      <c r="D8" t="s">
-        <v>444</v>
-      </c>
-      <c r="F8" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>422</v>
-      </c>
-      <c r="B9" t="s">
-        <v>423</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
         <v>333</v>
       </c>
-      <c r="D9" t="s">
-        <v>444</v>
-      </c>
-      <c r="F9" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C10" t="s">
         <v>332</v>
       </c>
-      <c r="B10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C10" t="s">
-        <v>333</v>
-      </c>
       <c r="D10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F10" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G10">
+        <v>45</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>215</v>
       </c>
@@ -2242,50 +2308,65 @@
         <v>216</v>
       </c>
       <c r="C11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F11" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G11">
+        <v>175</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>262</v>
+      </c>
+      <c r="B12" t="s">
         <v>263</v>
       </c>
-      <c r="B12" t="s">
-        <v>264</v>
-      </c>
       <c r="C12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F12" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>300</v>
+      </c>
+      <c r="B13" t="s">
         <v>301</v>
       </c>
-      <c r="B13" t="s">
-        <v>302</v>
-      </c>
       <c r="C13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D13" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F13" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G13">
+        <v>115</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>221</v>
       </c>
@@ -2293,16 +2374,22 @@
         <v>222</v>
       </c>
       <c r="C14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F14" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G14">
+        <v>20</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>133</v>
       </c>
@@ -2310,16 +2397,22 @@
         <v>134</v>
       </c>
       <c r="C15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F15" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G15">
+        <v>42.5</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>80</v>
       </c>
@@ -2327,101 +2420,137 @@
         <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F16" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G16">
+        <v>30</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>346</v>
+      </c>
+      <c r="B17" t="s">
         <v>347</v>
       </c>
-      <c r="B17" t="s">
-        <v>348</v>
-      </c>
       <c r="C17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D17" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F17" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G17">
+        <v>30</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>375</v>
+      </c>
+      <c r="B18" t="s">
         <v>376</v>
       </c>
-      <c r="B18" t="s">
-        <v>377</v>
-      </c>
       <c r="C18" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D18" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F18" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G18">
+        <v>50</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>398</v>
+      </c>
+      <c r="B19" t="s">
         <v>399</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>332</v>
+      </c>
+      <c r="D19" t="s">
+        <v>443</v>
+      </c>
+      <c r="F19" t="s">
+        <v>447</v>
+      </c>
+      <c r="G19">
+        <v>15</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>266</v>
+      </c>
+      <c r="B20" t="s">
+        <v>267</v>
+      </c>
+      <c r="C20" t="s">
+        <v>330</v>
+      </c>
+      <c r="D20" t="s">
+        <v>443</v>
+      </c>
+      <c r="F20" t="s">
+        <v>447</v>
+      </c>
+      <c r="G20">
+        <v>12.5</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>310</v>
+      </c>
+      <c r="B21" t="s">
+        <v>311</v>
+      </c>
+      <c r="C21" t="s">
+        <v>330</v>
+      </c>
+      <c r="D21" t="s">
+        <v>443</v>
+      </c>
+      <c r="F21" t="s">
+        <v>447</v>
+      </c>
+      <c r="G21">
         <v>400</v>
       </c>
-      <c r="C19" t="s">
-        <v>333</v>
-      </c>
-      <c r="D19" t="s">
-        <v>444</v>
-      </c>
-      <c r="F19" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>267</v>
-      </c>
-      <c r="B20" t="s">
-        <v>268</v>
-      </c>
-      <c r="C20" t="s">
-        <v>331</v>
-      </c>
-      <c r="D20" t="s">
-        <v>444</v>
-      </c>
-      <c r="F20" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>311</v>
-      </c>
-      <c r="B21" t="s">
-        <v>312</v>
-      </c>
-      <c r="C21" t="s">
-        <v>331</v>
-      </c>
-      <c r="D21" t="s">
-        <v>444</v>
-      </c>
-      <c r="F21" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>137</v>
       </c>
@@ -2429,33 +2558,45 @@
         <v>138</v>
       </c>
       <c r="C22" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D22" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F22" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G22">
+        <v>90</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>395</v>
+      </c>
+      <c r="B23" t="s">
         <v>396</v>
       </c>
-      <c r="B23" t="s">
-        <v>397</v>
-      </c>
       <c r="C23" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D23" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F23" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G23">
+        <v>25</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>155</v>
       </c>
@@ -2463,16 +2604,22 @@
         <v>156</v>
       </c>
       <c r="C24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D24" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F24" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G24">
+        <v>15</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -2480,16 +2627,22 @@
         <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D25" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F25" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G25">
+        <v>115</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -2497,16 +2650,22 @@
         <v>110</v>
       </c>
       <c r="C26" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D26" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F26" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G26">
+        <v>40</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>100</v>
       </c>
@@ -2514,13 +2673,19 @@
         <v>101</v>
       </c>
       <c r="C27" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D27" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+      <c r="G27">
+        <v>25</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>255</v>
       </c>
@@ -2528,33 +2693,45 @@
         <v>256</v>
       </c>
       <c r="C28" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D28" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F28" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G28">
+        <v>12.5</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>284</v>
+      </c>
+      <c r="B29" t="s">
         <v>285</v>
       </c>
-      <c r="B29" t="s">
-        <v>286</v>
-      </c>
       <c r="C29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D29" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F29" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G29">
+        <v>25</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>161</v>
       </c>
@@ -2562,67 +2739,91 @@
         <v>162</v>
       </c>
       <c r="C30" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D30" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F30" t="s">
+        <v>447</v>
+      </c>
+      <c r="G30">
+        <v>52.5</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>411</v>
+      </c>
+      <c r="B31" t="s">
+        <v>412</v>
+      </c>
+      <c r="C31" t="s">
+        <v>332</v>
+      </c>
+      <c r="D31" t="s">
+        <v>443</v>
+      </c>
+      <c r="F31" t="s">
+        <v>447</v>
+      </c>
+      <c r="G31">
+        <v>27.5</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>409</v>
+      </c>
+      <c r="B32" t="s">
+        <v>410</v>
+      </c>
+      <c r="C32" t="s">
+        <v>332</v>
+      </c>
+      <c r="D32" t="s">
+        <v>443</v>
+      </c>
+      <c r="F32" t="s">
+        <v>447</v>
+      </c>
+      <c r="G32">
+        <v>80</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>377</v>
+      </c>
+      <c r="B33" t="s">
+        <v>378</v>
+      </c>
+      <c r="C33" t="s">
+        <v>332</v>
+      </c>
+      <c r="D33" t="s">
+        <v>443</v>
+      </c>
+      <c r="F33" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>412</v>
-      </c>
-      <c r="B31" t="s">
-        <v>413</v>
-      </c>
-      <c r="C31" t="s">
-        <v>333</v>
-      </c>
-      <c r="D31" t="s">
-        <v>444</v>
-      </c>
-      <c r="F31" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>410</v>
-      </c>
-      <c r="B32" t="s">
-        <v>411</v>
-      </c>
-      <c r="C32" t="s">
-        <v>333</v>
-      </c>
-      <c r="D32" t="s">
-        <v>444</v>
-      </c>
-      <c r="F32" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>378</v>
-      </c>
-      <c r="B33" t="s">
-        <v>379</v>
-      </c>
-      <c r="C33" t="s">
-        <v>333</v>
-      </c>
-      <c r="D33" t="s">
-        <v>444</v>
-      </c>
-      <c r="F33" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>125</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>201</v>
       </c>
@@ -2630,13 +2831,16 @@
         <v>202</v>
       </c>
       <c r="C34" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D34" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>90</v>
       </c>
@@ -2644,53 +2848,71 @@
         <v>91</v>
       </c>
       <c r="C35" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D35" t="s">
+        <v>443</v>
+      </c>
+      <c r="F35" t="s">
+        <v>447</v>
+      </c>
+      <c r="G35">
+        <v>55</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>334</v>
+      </c>
+      <c r="B36" t="s">
+        <v>335</v>
+      </c>
+      <c r="C36" t="s">
+        <v>332</v>
+      </c>
+      <c r="D36" t="s">
+        <v>443</v>
+      </c>
+      <c r="F36" t="s">
+        <v>447</v>
+      </c>
+      <c r="G36">
+        <v>27.5</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>407</v>
+      </c>
+      <c r="B37" t="s">
+        <v>408</v>
+      </c>
+      <c r="C37" t="s">
+        <v>332</v>
+      </c>
+      <c r="D37" t="s">
         <v>444</v>
       </c>
-      <c r="F35" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>335</v>
-      </c>
-      <c r="B36" t="s">
-        <v>336</v>
-      </c>
-      <c r="C36" t="s">
-        <v>333</v>
-      </c>
-      <c r="D36" t="s">
-        <v>444</v>
-      </c>
-      <c r="F36" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>408</v>
-      </c>
-      <c r="B37" t="s">
-        <v>409</v>
-      </c>
-      <c r="C37" t="s">
-        <v>333</v>
-      </c>
-      <c r="D37" t="s">
-        <v>445</v>
-      </c>
       <c r="E37" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F37" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G37">
+        <v>20</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>104</v>
       </c>
@@ -2698,33 +2920,45 @@
         <v>105</v>
       </c>
       <c r="C38" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D38" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F38" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G38">
+        <v>15</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>320</v>
+      </c>
+      <c r="B39" t="s">
         <v>321</v>
       </c>
-      <c r="B39" t="s">
-        <v>322</v>
-      </c>
       <c r="C39" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D39" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F39" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G39">
+        <v>45</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -2732,16 +2966,22 @@
         <v>62</v>
       </c>
       <c r="C40" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D40" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F40" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G40">
+        <v>30</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>177</v>
       </c>
@@ -2749,16 +2989,22 @@
         <v>178</v>
       </c>
       <c r="C41" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D41" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F41" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G41">
+        <v>1400</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>102</v>
       </c>
@@ -2766,16 +3012,22 @@
         <v>103</v>
       </c>
       <c r="C42" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D42" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F42" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G42">
+        <v>2650</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>159</v>
       </c>
@@ -2783,33 +3035,45 @@
         <v>160</v>
       </c>
       <c r="C43" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D43" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F43" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G43">
+        <v>30</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>356</v>
+      </c>
+      <c r="B44" t="s">
         <v>357</v>
       </c>
-      <c r="B44" t="s">
-        <v>358</v>
-      </c>
       <c r="C44" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D44" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F44" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G44">
+        <v>25</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>29</v>
       </c>
@@ -2817,16 +3081,22 @@
         <v>30</v>
       </c>
       <c r="C45" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D45" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F45" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G45">
+        <v>125</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>175</v>
       </c>
@@ -2834,16 +3104,22 @@
         <v>176</v>
       </c>
       <c r="C46" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D46" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F46" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G46">
+        <v>12.5</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>167</v>
       </c>
@@ -2851,33 +3127,45 @@
         <v>168</v>
       </c>
       <c r="C47" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D47" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F47" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G47">
+        <v>800</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>322</v>
+      </c>
+      <c r="B48" t="s">
         <v>323</v>
       </c>
-      <c r="B48" t="s">
-        <v>324</v>
-      </c>
       <c r="C48" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D48" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F48" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G48">
+        <v>12.5</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>98</v>
       </c>
@@ -2885,16 +3173,22 @@
         <v>99</v>
       </c>
       <c r="C49" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D49" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F49" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G49">
+        <v>20</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -2902,67 +3196,91 @@
         <v>97</v>
       </c>
       <c r="C50" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D50" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F50" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G50">
+        <v>22.5</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>393</v>
+      </c>
+      <c r="B51" t="s">
         <v>394</v>
       </c>
-      <c r="B51" t="s">
-        <v>395</v>
-      </c>
       <c r="C51" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D51" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F51" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G51">
+        <v>37.5</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>274</v>
+      </c>
+      <c r="B52" t="s">
         <v>275</v>
       </c>
-      <c r="B52" t="s">
-        <v>276</v>
-      </c>
       <c r="C52" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D52" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F52" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G52">
+        <v>62.5</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>324</v>
+      </c>
+      <c r="B53" t="s">
         <v>325</v>
       </c>
-      <c r="B53" t="s">
-        <v>326</v>
-      </c>
       <c r="C53" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D53" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F53" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G53">
+        <v>20</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -2970,16 +3288,22 @@
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D54" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F54" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G54">
+        <v>35</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>183</v>
       </c>
@@ -2987,16 +3311,22 @@
         <v>184</v>
       </c>
       <c r="C55" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D55" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F55" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G55">
+        <v>45</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>27</v>
       </c>
@@ -3004,33 +3334,45 @@
         <v>28</v>
       </c>
       <c r="C56" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D56" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F56" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G56">
+        <v>60</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>288</v>
+      </c>
+      <c r="B57" t="s">
         <v>289</v>
       </c>
-      <c r="B57" t="s">
-        <v>290</v>
-      </c>
       <c r="C57" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D57" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F57" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G57">
+        <v>90</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>209</v>
       </c>
@@ -3038,16 +3380,22 @@
         <v>210</v>
       </c>
       <c r="C58" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D58" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F58" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G58">
+        <v>10</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>115</v>
       </c>
@@ -3055,16 +3403,22 @@
         <v>116</v>
       </c>
       <c r="C59" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D59" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F59" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G59">
+        <v>45</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>187</v>
       </c>
@@ -3072,16 +3426,22 @@
         <v>188</v>
       </c>
       <c r="C60" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D60" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F60" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G60">
+        <v>25</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>223</v>
       </c>
@@ -3089,16 +3449,22 @@
         <v>224</v>
       </c>
       <c r="C61" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D61" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F61" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+      <c r="G61">
+        <v>60</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>84</v>
       </c>
@@ -3106,16 +3472,22 @@
         <v>85</v>
       </c>
       <c r="C62" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D62" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F62" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G62">
+        <v>125</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>37</v>
       </c>
@@ -3123,16 +3495,22 @@
         <v>38</v>
       </c>
       <c r="C63" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D63" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F63" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G63">
+        <v>70</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>123</v>
       </c>
@@ -3140,16 +3518,22 @@
         <v>124</v>
       </c>
       <c r="C64" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D64" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F64" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G64">
+        <v>25</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>193</v>
       </c>
@@ -3157,16 +3541,22 @@
         <v>194</v>
       </c>
       <c r="C65" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D65" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F65" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G65">
+        <v>32.5</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>51</v>
       </c>
@@ -3174,16 +3564,22 @@
         <v>52</v>
       </c>
       <c r="C66" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D66" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F66" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G66">
+        <v>35</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>23</v>
       </c>
@@ -3191,16 +3587,22 @@
         <v>24</v>
       </c>
       <c r="C67" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D67" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F67" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G67">
+        <v>22.5</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -3208,67 +3610,91 @@
         <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D68" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F68" t="s">
+        <v>447</v>
+      </c>
+      <c r="G68">
+        <v>100</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>312</v>
+      </c>
+      <c r="B69" t="s">
+        <v>313</v>
+      </c>
+      <c r="C69" t="s">
+        <v>330</v>
+      </c>
+      <c r="D69" t="s">
+        <v>443</v>
+      </c>
+      <c r="F69" t="s">
+        <v>447</v>
+      </c>
+      <c r="G69">
+        <v>30</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>338</v>
+      </c>
+      <c r="B70" t="s">
+        <v>339</v>
+      </c>
+      <c r="C70" t="s">
+        <v>332</v>
+      </c>
+      <c r="D70" t="s">
+        <v>443</v>
+      </c>
+      <c r="F70" t="s">
+        <v>447</v>
+      </c>
+      <c r="G70">
+        <v>70</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>358</v>
+      </c>
+      <c r="B71" t="s">
+        <v>359</v>
+      </c>
+      <c r="C71" t="s">
+        <v>332</v>
+      </c>
+      <c r="D71" t="s">
+        <v>443</v>
+      </c>
+      <c r="F71" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>313</v>
-      </c>
-      <c r="B69" t="s">
-        <v>314</v>
-      </c>
-      <c r="C69" t="s">
-        <v>331</v>
-      </c>
-      <c r="D69" t="s">
-        <v>444</v>
-      </c>
-      <c r="F69" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>339</v>
-      </c>
-      <c r="B70" t="s">
-        <v>340</v>
-      </c>
-      <c r="C70" t="s">
-        <v>333</v>
-      </c>
-      <c r="D70" t="s">
-        <v>444</v>
-      </c>
-      <c r="F70" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>359</v>
-      </c>
-      <c r="B71" t="s">
-        <v>360</v>
-      </c>
-      <c r="C71" t="s">
-        <v>333</v>
-      </c>
-      <c r="D71" t="s">
-        <v>444</v>
-      </c>
-      <c r="F71" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71">
+        <v>35</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>249</v>
       </c>
@@ -3276,16 +3702,19 @@
         <v>250</v>
       </c>
       <c r="C72" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D72" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F72" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -3293,33 +3722,45 @@
         <v>73</v>
       </c>
       <c r="C73" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D73" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F73" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G73">
+        <v>45</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>306</v>
+      </c>
+      <c r="B74" t="s">
         <v>307</v>
       </c>
-      <c r="B74" t="s">
-        <v>308</v>
-      </c>
       <c r="C74" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D74" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F74" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G74">
+        <v>850</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>86</v>
       </c>
@@ -3327,33 +3768,45 @@
         <v>87</v>
       </c>
       <c r="C75" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D75" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F75" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G75">
+        <v>12.5</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D76" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F76" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G76">
+        <v>12.5</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>11</v>
       </c>
@@ -3361,16 +3814,22 @@
         <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D77" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F77" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G77">
+        <v>20</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>15</v>
       </c>
@@ -3378,16 +3837,22 @@
         <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D78" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F78" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G78">
+        <v>25</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>235</v>
       </c>
@@ -3395,16 +3860,22 @@
         <v>236</v>
       </c>
       <c r="C79" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D79" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F79" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G79">
+        <v>800</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>197</v>
       </c>
@@ -3412,50 +3883,68 @@
         <v>198</v>
       </c>
       <c r="C80" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D80" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F80" t="s">
+        <v>447</v>
+      </c>
+      <c r="G80">
+        <v>175</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>316</v>
+      </c>
+      <c r="B81" t="s">
+        <v>317</v>
+      </c>
+      <c r="C81" t="s">
+        <v>330</v>
+      </c>
+      <c r="D81" t="s">
+        <v>443</v>
+      </c>
+      <c r="F81" t="s">
+        <v>447</v>
+      </c>
+      <c r="G81">
+        <v>30</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>429</v>
+      </c>
+      <c r="B82" t="s">
+        <v>430</v>
+      </c>
+      <c r="C82" t="s">
+        <v>332</v>
+      </c>
+      <c r="D82" t="s">
+        <v>443</v>
+      </c>
+      <c r="F82" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>317</v>
-      </c>
-      <c r="B81" t="s">
-        <v>318</v>
-      </c>
-      <c r="C81" t="s">
-        <v>331</v>
-      </c>
-      <c r="D81" t="s">
-        <v>444</v>
-      </c>
-      <c r="F81" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>430</v>
-      </c>
-      <c r="B82" t="s">
-        <v>431</v>
-      </c>
-      <c r="C82" t="s">
-        <v>333</v>
-      </c>
-      <c r="D82" t="s">
-        <v>444</v>
-      </c>
-      <c r="F82" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82">
+        <v>90</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>153</v>
       </c>
@@ -3463,67 +3952,91 @@
         <v>154</v>
       </c>
       <c r="C83" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D83" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F83" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G83">
+        <v>65</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>294</v>
+      </c>
+      <c r="B84" t="s">
         <v>295</v>
       </c>
-      <c r="B84" t="s">
-        <v>296</v>
-      </c>
       <c r="C84" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D84" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F84" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G84">
+        <v>45</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>282</v>
+      </c>
+      <c r="B85" t="s">
         <v>283</v>
       </c>
-      <c r="B85" t="s">
-        <v>284</v>
-      </c>
       <c r="C85" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D85" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F85" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G85">
+        <v>1500</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>413</v>
+      </c>
+      <c r="B86" t="s">
         <v>414</v>
       </c>
-      <c r="B86" t="s">
-        <v>415</v>
-      </c>
       <c r="C86" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D86" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F86" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G86">
+        <v>12.5</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>111</v>
       </c>
@@ -3531,16 +4044,22 @@
         <v>112</v>
       </c>
       <c r="C87" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D87" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F87" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G87">
+        <v>35</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>131</v>
       </c>
@@ -3548,115 +4067,154 @@
         <v>132</v>
       </c>
       <c r="C88" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D88" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F88" t="s">
+        <v>447</v>
+      </c>
+      <c r="G88">
+        <v>65</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>348</v>
+      </c>
+      <c r="B89" t="s">
+        <v>349</v>
+      </c>
+      <c r="C89" t="s">
+        <v>332</v>
+      </c>
+      <c r="D89" t="s">
+        <v>443</v>
+      </c>
+      <c r="F89" t="s">
+        <v>447</v>
+      </c>
+      <c r="G89">
+        <v>100</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>433</v>
+      </c>
+      <c r="B90" t="s">
+        <v>434</v>
+      </c>
+      <c r="C90" t="s">
+        <v>332</v>
+      </c>
+      <c r="D90" t="s">
+        <v>443</v>
+      </c>
+      <c r="F90" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>349</v>
-      </c>
-      <c r="B89" t="s">
-        <v>350</v>
-      </c>
-      <c r="C89" t="s">
-        <v>333</v>
-      </c>
-      <c r="D89" t="s">
-        <v>444</v>
-      </c>
-      <c r="F89" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>434</v>
-      </c>
-      <c r="B90" t="s">
-        <v>435</v>
-      </c>
-      <c r="C90" t="s">
-        <v>333</v>
-      </c>
-      <c r="D90" t="s">
-        <v>444</v>
-      </c>
-      <c r="F90" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G90">
+        <v>55</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>304</v>
+      </c>
+      <c r="B91" t="s">
         <v>305</v>
       </c>
-      <c r="B91" t="s">
-        <v>306</v>
-      </c>
       <c r="C91" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D91" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F91" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G91">
+        <v>65</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>286</v>
+      </c>
+      <c r="B92" t="s">
         <v>287</v>
       </c>
-      <c r="B92" t="s">
-        <v>288</v>
-      </c>
       <c r="C92" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D92" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F92" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G92">
+        <v>45</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>260</v>
+      </c>
+      <c r="B93" t="s">
         <v>261</v>
       </c>
-      <c r="B93" t="s">
-        <v>262</v>
-      </c>
       <c r="C93" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D93" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>278</v>
+      </c>
+      <c r="B94" t="s">
         <v>279</v>
       </c>
-      <c r="B94" t="s">
-        <v>280</v>
-      </c>
       <c r="C94" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D94" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F94" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G94">
+        <v>65</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>143</v>
       </c>
@@ -3664,33 +4222,45 @@
         <v>144</v>
       </c>
       <c r="C95" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D95" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F95" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G95">
+        <v>105</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>342</v>
+      </c>
+      <c r="B96" t="s">
         <v>343</v>
       </c>
-      <c r="B96" t="s">
-        <v>344</v>
-      </c>
       <c r="C96" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D96" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F96" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G96">
+        <v>50</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>117</v>
       </c>
@@ -3698,67 +4268,91 @@
         <v>118</v>
       </c>
       <c r="C97" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D97" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F97" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G97">
+        <v>3.5</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>360</v>
+      </c>
+      <c r="B98" t="s">
         <v>361</v>
       </c>
-      <c r="B98" t="s">
-        <v>362</v>
-      </c>
       <c r="C98" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D98" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F98" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G98">
+        <v>47.5</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>415</v>
+      </c>
+      <c r="B99" t="s">
         <v>416</v>
       </c>
-      <c r="B99" t="s">
-        <v>417</v>
-      </c>
       <c r="C99" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D99" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F99" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G99">
+        <v>75</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>350</v>
+      </c>
+      <c r="B100" t="s">
         <v>351</v>
       </c>
-      <c r="B100" t="s">
-        <v>352</v>
-      </c>
       <c r="C100" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D100" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F100" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G100">
+        <v>50</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>233</v>
       </c>
@@ -3766,16 +4360,22 @@
         <v>234</v>
       </c>
       <c r="C101" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D101" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F101" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G101">
+        <v>35</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>57</v>
       </c>
@@ -3783,16 +4383,22 @@
         <v>58</v>
       </c>
       <c r="C102" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D102" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F102" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G102">
+        <v>60</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>245</v>
       </c>
@@ -3800,16 +4406,22 @@
         <v>246</v>
       </c>
       <c r="C103" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D103" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F103" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G103">
+        <v>42.5</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>185</v>
       </c>
@@ -3817,33 +4429,45 @@
         <v>186</v>
       </c>
       <c r="C104" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D104" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F104" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G104">
+        <v>60</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>423</v>
+      </c>
+      <c r="B105" t="s">
         <v>424</v>
       </c>
-      <c r="B105" t="s">
-        <v>425</v>
-      </c>
       <c r="C105" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D105" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F105" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G105">
+        <v>27.5</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>203</v>
       </c>
@@ -3851,16 +4475,22 @@
         <v>204</v>
       </c>
       <c r="C106" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D106" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F106" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G106">
+        <v>65</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>94</v>
       </c>
@@ -3868,16 +4498,22 @@
         <v>95</v>
       </c>
       <c r="C107" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D107" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F107" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G107">
+        <v>40</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>125</v>
       </c>
@@ -3885,16 +4521,22 @@
         <v>126</v>
       </c>
       <c r="C108" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D108" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F108" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G108">
+        <v>150</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>243</v>
       </c>
@@ -3902,16 +4544,22 @@
         <v>244</v>
       </c>
       <c r="C109" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D109" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F109" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G109">
+        <v>17.5</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>189</v>
       </c>
@@ -3919,16 +4567,22 @@
         <v>190</v>
       </c>
       <c r="C110" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D110" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F110" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G110">
+        <v>17.5</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>251</v>
       </c>
@@ -3936,33 +4590,45 @@
         <v>252</v>
       </c>
       <c r="C111" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D111" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F111" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G111">
+        <v>30</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>318</v>
+      </c>
+      <c r="B112" t="s">
         <v>319</v>
       </c>
-      <c r="B112" t="s">
-        <v>320</v>
-      </c>
       <c r="C112" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D112" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F112" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G112">
+        <v>42.5</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>1</v>
       </c>
@@ -3970,13 +4636,19 @@
         <v>2</v>
       </c>
       <c r="C113" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D113" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+      <c r="G113">
+        <v>85</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>59</v>
       </c>
@@ -3984,16 +4656,22 @@
         <v>60</v>
       </c>
       <c r="C114" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D114" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F114" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G114">
+        <v>1500</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>253</v>
       </c>
@@ -4001,16 +4679,22 @@
         <v>254</v>
       </c>
       <c r="C115" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D115" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F115" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G115">
+        <v>85</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>151</v>
       </c>
@@ -4018,16 +4702,22 @@
         <v>152</v>
       </c>
       <c r="C116" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F116" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G116">
+        <v>36</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>3</v>
       </c>
@@ -4035,67 +4725,88 @@
         <v>4</v>
       </c>
       <c r="C117" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D117" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F117" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D118" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F118" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G118">
+        <v>115</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>272</v>
+      </c>
+      <c r="B119" t="s">
         <v>273</v>
       </c>
-      <c r="B119" t="s">
-        <v>274</v>
-      </c>
       <c r="C119" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D119" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F119" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G119">
+        <v>47.5</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>438</v>
+      </c>
+      <c r="B120" t="s">
         <v>439</v>
       </c>
-      <c r="B120" t="s">
-        <v>440</v>
-      </c>
       <c r="C120" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D120" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F120" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G120">
+        <v>70</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>217</v>
       </c>
@@ -4103,33 +4814,45 @@
         <v>218</v>
       </c>
       <c r="C121" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D121" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F121" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G121">
+        <v>50</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>268</v>
+      </c>
+      <c r="B122" t="s">
         <v>269</v>
       </c>
-      <c r="B122" t="s">
-        <v>270</v>
-      </c>
       <c r="C122" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D122" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F122" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G122">
+        <v>40</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>165</v>
       </c>
@@ -4137,16 +4860,22 @@
         <v>166</v>
       </c>
       <c r="C123" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D123" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F123" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G123">
+        <v>40</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>257</v>
       </c>
@@ -4154,50 +4883,68 @@
         <v>258</v>
       </c>
       <c r="C124" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D124" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F124" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G124">
+        <v>22.5</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>417</v>
+      </c>
+      <c r="B125" t="s">
         <v>418</v>
       </c>
-      <c r="B125" t="s">
-        <v>419</v>
-      </c>
       <c r="C125" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D125" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F125" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G125">
+        <v>25</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>400</v>
+      </c>
+      <c r="B126" t="s">
         <v>401</v>
       </c>
-      <c r="B126" t="s">
-        <v>402</v>
-      </c>
       <c r="C126" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D126" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F126" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G126">
+        <v>75</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>241</v>
       </c>
@@ -4205,33 +4952,45 @@
         <v>242</v>
       </c>
       <c r="C127" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D127" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F127" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+      <c r="G127">
+        <v>25</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>340</v>
+      </c>
+      <c r="B128" t="s">
         <v>341</v>
       </c>
-      <c r="B128" t="s">
-        <v>342</v>
-      </c>
       <c r="C128" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D128" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F128" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G128">
+        <v>105</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>19</v>
       </c>
@@ -4239,16 +4998,22 @@
         <v>20</v>
       </c>
       <c r="C129" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D129" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F129" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G129">
+        <v>45</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>181</v>
       </c>
@@ -4256,50 +5021,68 @@
         <v>182</v>
       </c>
       <c r="C130" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D130" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F130" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G130">
+        <v>115</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>302</v>
+      </c>
+      <c r="B131" t="s">
         <v>303</v>
       </c>
-      <c r="B131" t="s">
-        <v>304</v>
-      </c>
       <c r="C131" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D131" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F131" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G131">
+        <v>90</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>280</v>
+      </c>
+      <c r="B132" t="s">
         <v>281</v>
       </c>
-      <c r="B132" t="s">
-        <v>282</v>
-      </c>
       <c r="C132" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D132" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F132" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G132">
+        <v>17.5</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>17</v>
       </c>
@@ -4307,16 +5090,22 @@
         <v>18</v>
       </c>
       <c r="C133" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D133" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F133" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G133">
+        <v>15</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>129</v>
       </c>
@@ -4324,16 +5113,22 @@
         <v>130</v>
       </c>
       <c r="C134" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D134" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F134" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G134">
+        <v>30</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>119</v>
       </c>
@@ -4341,16 +5136,22 @@
         <v>120</v>
       </c>
       <c r="C135" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D135" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F135" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G135">
+        <v>85</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>207</v>
       </c>
@@ -4358,16 +5159,22 @@
         <v>208</v>
       </c>
       <c r="C136" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D136" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F136" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G136">
+        <v>55</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>213</v>
       </c>
@@ -4375,50 +5182,68 @@
         <v>214</v>
       </c>
       <c r="C137" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D137" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F137" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G137">
+        <v>37.5</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>336</v>
+      </c>
+      <c r="B138" t="s">
         <v>337</v>
       </c>
-      <c r="B138" t="s">
-        <v>338</v>
-      </c>
       <c r="C138" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D138" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F138" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G138">
+        <v>52.5</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>367</v>
+      </c>
+      <c r="B139" t="s">
         <v>368</v>
       </c>
-      <c r="B139" t="s">
-        <v>369</v>
-      </c>
       <c r="C139" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D139" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F139" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G139">
+        <v>35</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>31</v>
       </c>
@@ -4426,16 +5251,22 @@
         <v>32</v>
       </c>
       <c r="C140" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D140" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F140" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G140">
+        <v>45</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>195</v>
       </c>
@@ -4443,33 +5274,45 @@
         <v>196</v>
       </c>
       <c r="C141" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D141" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F141" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G141">
+        <v>900</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>389</v>
+      </c>
+      <c r="B142" t="s">
         <v>390</v>
       </c>
-      <c r="B142" t="s">
-        <v>391</v>
-      </c>
       <c r="C142" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D142" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F142" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G142">
+        <v>135</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>141</v>
       </c>
@@ -4477,50 +5320,68 @@
         <v>142</v>
       </c>
       <c r="C143" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D143" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F143" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G143">
+        <v>12.5</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>290</v>
+      </c>
+      <c r="B144" t="s">
         <v>291</v>
       </c>
-      <c r="B144" t="s">
-        <v>292</v>
-      </c>
       <c r="C144" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D144" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F144" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G144">
+        <v>40</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>270</v>
+      </c>
+      <c r="B145" t="s">
         <v>271</v>
       </c>
-      <c r="B145" t="s">
-        <v>272</v>
-      </c>
       <c r="C145" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D145" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F145" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G145">
+        <v>37.5</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>106</v>
       </c>
@@ -4528,16 +5389,22 @@
         <v>107</v>
       </c>
       <c r="C146" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D146" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F146" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G146">
+        <v>40</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>45</v>
       </c>
@@ -4545,50 +5412,68 @@
         <v>46</v>
       </c>
       <c r="C147" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D147" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F147" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G147">
+        <v>27.5</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>383</v>
+      </c>
+      <c r="B148" t="s">
         <v>384</v>
       </c>
-      <c r="B148" t="s">
-        <v>385</v>
-      </c>
       <c r="C148" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D148" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F148" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G148">
+        <v>20</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>298</v>
+      </c>
+      <c r="B149" t="s">
         <v>299</v>
       </c>
-      <c r="B149" t="s">
-        <v>300</v>
-      </c>
       <c r="C149" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D149" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F149" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G149">
+        <v>25</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>237</v>
       </c>
@@ -4596,33 +5481,45 @@
         <v>238</v>
       </c>
       <c r="C150" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D150" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F150" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G150">
+        <v>60</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
+        <v>362</v>
+      </c>
+      <c r="B151" t="s">
         <v>363</v>
       </c>
-      <c r="B151" t="s">
-        <v>364</v>
-      </c>
       <c r="C151" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D151" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F151" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G151">
+        <v>90</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>88</v>
       </c>
@@ -4630,16 +5527,22 @@
         <v>89</v>
       </c>
       <c r="C152" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D152" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F152" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G152">
+        <v>75</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>227</v>
       </c>
@@ -4647,16 +5550,22 @@
         <v>228</v>
       </c>
       <c r="C153" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D153" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F153" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G153">
+        <v>125</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>157</v>
       </c>
@@ -4664,33 +5573,45 @@
         <v>158</v>
       </c>
       <c r="C154" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D154" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F154" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G154">
+        <v>15</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D155" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F155" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G155">
+        <v>47.5</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>145</v>
       </c>
@@ -4698,16 +5619,22 @@
         <v>146</v>
       </c>
       <c r="C156" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D156" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F156" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G156">
+        <v>42.5</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>113</v>
       </c>
@@ -4715,33 +5642,45 @@
         <v>114</v>
       </c>
       <c r="C157" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D157" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F157" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G157">
+        <v>32.5</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>425</v>
+      </c>
+      <c r="B158" t="s">
         <v>426</v>
       </c>
-      <c r="B158" t="s">
-        <v>427</v>
-      </c>
       <c r="C158" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D158" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F158" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G158">
+        <v>17.5</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>43</v>
       </c>
@@ -4749,33 +5688,45 @@
         <v>44</v>
       </c>
       <c r="C159" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D159" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F159" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G159">
+        <v>12.5</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>440</v>
+      </c>
+      <c r="B160" t="s">
         <v>441</v>
       </c>
-      <c r="B160" t="s">
-        <v>442</v>
-      </c>
       <c r="C160" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D160" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F160" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G160">
+        <v>55</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>68</v>
       </c>
@@ -4783,16 +5734,22 @@
         <v>69</v>
       </c>
       <c r="C161" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D161" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F161" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G161">
+        <v>42.5</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>231</v>
       </c>
@@ -4800,16 +5757,22 @@
         <v>232</v>
       </c>
       <c r="C162" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D162" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F162" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G162">
+        <v>22.5</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>199</v>
       </c>
@@ -4817,16 +5780,22 @@
         <v>200</v>
       </c>
       <c r="C163" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D163" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F163" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G163">
+        <v>32.5</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>78</v>
       </c>
@@ -4834,16 +5803,22 @@
         <v>79</v>
       </c>
       <c r="C164" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D164" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F164" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G164">
+        <v>65</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>25</v>
       </c>
@@ -4851,33 +5826,45 @@
         <v>26</v>
       </c>
       <c r="C165" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D165" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F165" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G165">
+        <v>65</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B166" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C166" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D166" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F166" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G166">
+        <v>140</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>247</v>
       </c>
@@ -4885,16 +5872,22 @@
         <v>248</v>
       </c>
       <c r="C167" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D167" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F167" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G167">
+        <v>70</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>229</v>
       </c>
@@ -4902,104 +5895,140 @@
         <v>230</v>
       </c>
       <c r="C168" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D168" t="s">
+        <v>443</v>
+      </c>
+      <c r="F168" t="s">
+        <v>447</v>
+      </c>
+      <c r="G168">
+        <v>15</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>379</v>
+      </c>
+      <c r="B169" t="s">
+        <v>380</v>
+      </c>
+      <c r="C169" t="s">
+        <v>332</v>
+      </c>
+      <c r="D169" t="s">
+        <v>443</v>
+      </c>
+      <c r="F169" t="s">
+        <v>447</v>
+      </c>
+      <c r="G169">
+        <v>40</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>326</v>
+      </c>
+      <c r="B170" t="s">
+        <v>327</v>
+      </c>
+      <c r="C170" t="s">
+        <v>330</v>
+      </c>
+      <c r="D170" t="s">
         <v>444</v>
       </c>
-      <c r="F168" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>380</v>
-      </c>
-      <c r="B169" t="s">
+      <c r="E170" t="s">
+        <v>449</v>
+      </c>
+      <c r="F170" t="s">
+        <v>446</v>
+      </c>
+      <c r="G170">
+        <v>6</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>405</v>
+      </c>
+      <c r="B171" t="s">
+        <v>406</v>
+      </c>
+      <c r="C171" t="s">
+        <v>332</v>
+      </c>
+      <c r="D171" t="s">
+        <v>443</v>
+      </c>
+      <c r="F171" t="s">
+        <v>447</v>
+      </c>
+      <c r="G171">
+        <v>22.5</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>381</v>
       </c>
-      <c r="C169" t="s">
-        <v>333</v>
-      </c>
-      <c r="D169" t="s">
-        <v>444</v>
-      </c>
-      <c r="F169" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>327</v>
-      </c>
-      <c r="B170" t="s">
-        <v>328</v>
-      </c>
-      <c r="C170" t="s">
-        <v>331</v>
-      </c>
-      <c r="D170" t="s">
-        <v>445</v>
-      </c>
-      <c r="E170" t="s">
-        <v>450</v>
-      </c>
-      <c r="F170" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>406</v>
-      </c>
-      <c r="B171" t="s">
-        <v>407</v>
-      </c>
-      <c r="C171" t="s">
-        <v>333</v>
-      </c>
-      <c r="D171" t="s">
-        <v>444</v>
-      </c>
-      <c r="F171" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="B172" t="s">
         <v>382</v>
       </c>
-      <c r="B172" t="s">
-        <v>383</v>
-      </c>
       <c r="C172" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D172" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F172" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+      <c r="G172">
+        <v>25</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>276</v>
+      </c>
+      <c r="B173" t="s">
         <v>277</v>
       </c>
-      <c r="B173" t="s">
-        <v>278</v>
-      </c>
       <c r="C173" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D173" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F173" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G173">
+        <v>900</v>
+      </c>
+      <c r="H173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>205</v>
       </c>
@@ -5007,16 +6036,22 @@
         <v>206</v>
       </c>
       <c r="C174" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D174" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F174" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G174">
+        <v>2100</v>
+      </c>
+      <c r="H174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>47</v>
       </c>
@@ -5024,50 +6059,68 @@
         <v>48</v>
       </c>
       <c r="C175" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D175" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F175" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G175">
+        <v>20</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>385</v>
+      </c>
+      <c r="B176" t="s">
         <v>386</v>
       </c>
-      <c r="B176" t="s">
-        <v>387</v>
-      </c>
       <c r="C176" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D176" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F176" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G176">
+        <v>15</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>352</v>
+      </c>
+      <c r="B177" t="s">
         <v>353</v>
       </c>
-      <c r="B177" t="s">
-        <v>354</v>
-      </c>
       <c r="C177" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D177" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F177" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G177">
+        <v>75</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>239</v>
       </c>
@@ -5075,33 +6128,45 @@
         <v>240</v>
       </c>
       <c r="C178" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D178" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F178" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G178">
+        <v>25</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>419</v>
+      </c>
+      <c r="B179" t="s">
         <v>420</v>
       </c>
-      <c r="B179" t="s">
-        <v>421</v>
-      </c>
       <c r="C179" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D179" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F179" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G179">
+        <v>30</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>5</v>
       </c>
@@ -5109,84 +6174,114 @@
         <v>6</v>
       </c>
       <c r="C180" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D180" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F180" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G180">
+        <v>45</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>292</v>
+      </c>
+      <c r="B181" t="s">
         <v>293</v>
       </c>
-      <c r="B181" t="s">
-        <v>294</v>
-      </c>
       <c r="C181" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D181" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F181" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G181">
+        <v>75</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
+        <v>391</v>
+      </c>
+      <c r="B182" t="s">
         <v>392</v>
       </c>
-      <c r="B182" t="s">
-        <v>393</v>
-      </c>
       <c r="C182" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D182" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F182" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G182">
+        <v>80</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>427</v>
+      </c>
+      <c r="B183" t="s">
         <v>428</v>
       </c>
-      <c r="B183" t="s">
-        <v>429</v>
-      </c>
       <c r="C183" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D183" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F183" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G183">
+        <v>15</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
+        <v>387</v>
+      </c>
+      <c r="B184" t="s">
         <v>388</v>
       </c>
-      <c r="B184" t="s">
-        <v>389</v>
-      </c>
       <c r="C184" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D184" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F184" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G184">
+        <v>55</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>169</v>
       </c>
@@ -5194,16 +6289,22 @@
         <v>170</v>
       </c>
       <c r="C185" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D185" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F185" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G185">
+        <v>102.5</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>225</v>
       </c>
@@ -5211,16 +6312,22 @@
         <v>226</v>
       </c>
       <c r="C186" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D186" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F186" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G186">
+        <v>20</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>127</v>
       </c>
@@ -5228,16 +6335,22 @@
         <v>128</v>
       </c>
       <c r="C187" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D187" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F187" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+      <c r="G187">
+        <v>65</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>66</v>
       </c>
@@ -5245,16 +6358,22 @@
         <v>67</v>
       </c>
       <c r="C188" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D188" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F188" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G188">
+        <v>20</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>121</v>
       </c>
@@ -5262,16 +6381,22 @@
         <v>122</v>
       </c>
       <c r="C189" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D189" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F189" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G189">
+        <v>10</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>49</v>
       </c>
@@ -5279,16 +6404,22 @@
         <v>50</v>
       </c>
       <c r="C190" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D190" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F190" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G190">
+        <v>45</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>21</v>
       </c>
@@ -5296,33 +6427,45 @@
         <v>22</v>
       </c>
       <c r="C191" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D191" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F191" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G191">
+        <v>50</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
+        <v>431</v>
+      </c>
+      <c r="B192" t="s">
         <v>432</v>
       </c>
-      <c r="B192" t="s">
-        <v>433</v>
-      </c>
       <c r="C192" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D192" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F192" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G192">
+        <v>22.5</v>
+      </c>
+      <c r="H192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>74</v>
       </c>
@@ -5330,16 +6473,22 @@
         <v>75</v>
       </c>
       <c r="C193" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D193" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F193" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G193">
+        <v>19</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>191</v>
       </c>
@@ -5347,16 +6496,22 @@
         <v>192</v>
       </c>
       <c r="C194" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D194" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F194" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G194">
+        <v>17.5</v>
+      </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>76</v>
       </c>
@@ -5364,67 +6519,91 @@
         <v>77</v>
       </c>
       <c r="C195" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D195" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F195" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G195">
+        <v>1650</v>
+      </c>
+      <c r="H195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
+        <v>344</v>
+      </c>
+      <c r="B196" t="s">
         <v>345</v>
       </c>
-      <c r="B196" t="s">
-        <v>346</v>
-      </c>
       <c r="C196" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D196" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F196" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G196">
+        <v>25</v>
+      </c>
+      <c r="H196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
+        <v>308</v>
+      </c>
+      <c r="B197" t="s">
         <v>309</v>
       </c>
-      <c r="B197" t="s">
-        <v>310</v>
-      </c>
       <c r="C197" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D197" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F197" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G197">
+        <v>90</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
+        <v>369</v>
+      </c>
+      <c r="B198" t="s">
         <v>370</v>
       </c>
-      <c r="B198" t="s">
-        <v>371</v>
-      </c>
       <c r="C198" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D198" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F198" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G198">
+        <v>15</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>13</v>
       </c>
@@ -5432,16 +6611,22 @@
         <v>14</v>
       </c>
       <c r="C199" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D199" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F199" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G199">
+        <v>30</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>139</v>
       </c>
@@ -5449,16 +6634,22 @@
         <v>140</v>
       </c>
       <c r="C200" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D200" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F200" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G200">
+        <v>25</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>9</v>
       </c>
@@ -5466,16 +6657,22 @@
         <v>10</v>
       </c>
       <c r="C201" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D201" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F201" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G201">
+        <v>95</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>39</v>
       </c>
@@ -5483,16 +6680,22 @@
         <v>40</v>
       </c>
       <c r="C202" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D202" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F202" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G202">
+        <v>100</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>41</v>
       </c>
@@ -5500,16 +6703,22 @@
         <v>42</v>
       </c>
       <c r="C203" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D203" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F203" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G203">
+        <v>22.5</v>
+      </c>
+      <c r="H203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>55</v>
       </c>
@@ -5517,16 +6726,22 @@
         <v>56</v>
       </c>
       <c r="C204" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D204" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F204" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G204">
+        <v>55</v>
+      </c>
+      <c r="H204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>108</v>
       </c>
@@ -5534,16 +6749,22 @@
         <v>62</v>
       </c>
       <c r="C205" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D205" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F205" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G205">
+        <v>30</v>
+      </c>
+      <c r="H205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>82</v>
       </c>
@@ -5551,50 +6772,68 @@
         <v>83</v>
       </c>
       <c r="C206" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D206" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F206" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G206">
+        <v>50</v>
+      </c>
+      <c r="H206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D207" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F207" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G207">
+        <v>50</v>
+      </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B208" t="s">
         <v>93</v>
       </c>
       <c r="C208" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D208" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F208" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G208">
+        <v>100</v>
+      </c>
+      <c r="H208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>92</v>
       </c>
@@ -5602,16 +6841,22 @@
         <v>93</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D209" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F209" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G209">
+        <v>100</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>149</v>
       </c>
@@ -5619,16 +6864,22 @@
         <v>150</v>
       </c>
       <c r="C210" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D210" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F210" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G210">
+        <v>30</v>
+      </c>
+      <c r="H210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>135</v>
       </c>
@@ -5636,16 +6887,22 @@
         <v>136</v>
       </c>
       <c r="C211" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D211" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F211" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G211">
+        <v>55</v>
+      </c>
+      <c r="H211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -5653,84 +6910,114 @@
         <v>212</v>
       </c>
       <c r="C212" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D212" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F212" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G212">
+        <v>45</v>
+      </c>
+      <c r="H212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
+        <v>264</v>
+      </c>
+      <c r="B213" t="s">
         <v>265</v>
       </c>
-      <c r="B213" t="s">
-        <v>266</v>
-      </c>
       <c r="C213" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D213" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F213" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G213">
+        <v>25</v>
+      </c>
+      <c r="H213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>371</v>
+      </c>
+      <c r="B214" t="s">
         <v>372</v>
       </c>
-      <c r="B214" t="s">
-        <v>373</v>
-      </c>
       <c r="C214" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D214" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F214" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G214">
+        <v>85</v>
+      </c>
+      <c r="H214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
+        <v>314</v>
+      </c>
+      <c r="B215" t="s">
         <v>315</v>
       </c>
-      <c r="B215" t="s">
-        <v>316</v>
-      </c>
       <c r="C215" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D215" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F215" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G215">
+        <v>20</v>
+      </c>
+      <c r="H215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
+        <v>365</v>
+      </c>
+      <c r="B216" t="s">
         <v>366</v>
       </c>
-      <c r="B216" t="s">
-        <v>367</v>
-      </c>
       <c r="C216" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D216" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F216" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G216">
+        <v>50</v>
+      </c>
+      <c r="H216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>163</v>
       </c>
@@ -5738,33 +7025,45 @@
         <v>164</v>
       </c>
       <c r="C217" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D217" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F217" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G217">
+        <v>60</v>
+      </c>
+      <c r="H217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
+        <v>354</v>
+      </c>
+      <c r="B218" t="s">
         <v>355</v>
       </c>
-      <c r="B218" t="s">
-        <v>356</v>
-      </c>
       <c r="C218" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D218" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F218" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G218">
+        <v>65</v>
+      </c>
+      <c r="H218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>179</v>
       </c>
@@ -5772,16 +7071,22 @@
         <v>180</v>
       </c>
       <c r="C219" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D219" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F219" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G219">
+        <v>12.5</v>
+      </c>
+      <c r="H219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>63</v>
       </c>
@@ -5789,16 +7094,22 @@
         <v>64</v>
       </c>
       <c r="C220" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D220" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F220" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G220">
+        <v>42.5</v>
+      </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>173</v>
       </c>
@@ -5806,16 +7117,22 @@
         <v>174</v>
       </c>
       <c r="C221" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D221" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F221" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G221">
+        <v>20</v>
+      </c>
+      <c r="H221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>219</v>
       </c>
@@ -5823,33 +7140,43 @@
         <v>220</v>
       </c>
       <c r="C222" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D222" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F222" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="G222">
+        <v>14</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>259</v>
       </c>
       <c r="B223" t="s">
-        <v>260</v>
+        <v>453</v>
       </c>
       <c r="C223" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D223" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F223" t="s">
-        <v>448</v>
+        <v>447</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G223" xr:uid="{EE3A9AC1-AE88-4809-8CE0-DB10C60DD422}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B223">
     <sortCondition ref="A2:A223"/>
   </sortState>
